--- a/biology/Zoologie/Éléphant_du_Sri_Lanka/Éléphant_du_Sri_Lanka.xlsx
+++ b/biology/Zoologie/Éléphant_du_Sri_Lanka/Éléphant_du_Sri_Lanka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_du_Sri_Lanka</t>
+          <t>Éléphant_du_Sri_Lanka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elephas maximus maximus
 L'éléphant du Sri Lanka (Elephas maximus maximus) est une sous-espèce d'éléphants d'Asie qui vit au Sri Lanka.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_du_Sri_Lanka</t>
+          <t>Éléphant_du_Sri_Lanka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_du_Sri_Lanka</t>
+          <t>Éléphant_du_Sri_Lanka</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_du_Sri_Lanka</t>
+          <t>Éléphant_du_Sri_Lanka</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -572,7 +590,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_du_Sri_Lanka</t>
+          <t>Éléphant_du_Sri_Lanka</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -590,7 +608,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sous-espèces :
 Elephas maximus hirsutus, l'éléphant de Malaisie ;
@@ -606,7 +626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9phant_du_Sri_Lanka</t>
+          <t>Éléphant_du_Sri_Lanka</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -624,7 +644,9 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Éléphanteau du Sri Lanka dans le Parc national d'Udawalawe.
